--- a/data/trans_camb/P08_1_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P08_1_R-Clase-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.4617472658134628</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-1.379963818654975</v>
+        <v>-1.379963818654977</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.885785294997292</v>
+        <v>-2.125941390023996</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.363521919707289</v>
+        <v>-3.010799917697896</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.930703580767222</v>
+        <v>-4.992816185352124</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.550957200720934</v>
+        <v>-8.284625577471004</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.641821930754311</v>
+        <v>-8.245457170587025</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.289543452513572</v>
+        <v>-7.015520500880461</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.469442960900082</v>
+        <v>-3.105034493209356</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.762410569293897</v>
+        <v>-3.555053496906271</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.209162941184863</v>
+        <v>-4.495491428528866</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.208920810438737</v>
+        <v>6.719518629294681</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.992518739589689</v>
+        <v>4.708782350360599</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.509681166525636</v>
+        <v>1.772102227430598</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.470525504864956</v>
+        <v>3.269078292882816</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.596326936511474</v>
+        <v>3.059614459680248</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.228840582787395</v>
+        <v>2.257161692458177</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.544192816619847</v>
+        <v>3.487311096396983</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.646032905902104</v>
+        <v>2.935959366973031</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.376717786010414</v>
+        <v>1.198979344376307</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.04073550630632805</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1217408937729011</v>
+        <v>-0.1217408937729012</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1687462369972482</v>
+        <v>-0.1900260399008314</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.301869817052248</v>
+        <v>-0.278800787127363</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4418396041524224</v>
+        <v>-0.4507319670376635</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4860913693134922</v>
+        <v>-0.471622874799286</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4896909514394415</v>
+        <v>-0.4534911194569464</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3949880947142418</v>
+        <v>-0.3867277760817941</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2657802938118453</v>
+        <v>-0.2415047740073054</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2890930913156935</v>
+        <v>-0.2808295697284329</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3207021145340608</v>
+        <v>-0.3435639341789002</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8449145336306468</v>
+        <v>0.9343822289888972</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7312134652464504</v>
+        <v>0.6653905303110796</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2094769974103724</v>
+        <v>0.2645804757266433</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2290034273526124</v>
+        <v>0.3112245464869248</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2182283735525474</v>
+        <v>0.2638562209680472</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1956133586236294</v>
+        <v>0.2063264404674559</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3524655405885962</v>
+        <v>0.3567737800028598</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2576633425123698</v>
+        <v>0.3131769206387362</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1460856748018753</v>
+        <v>0.1310769355735841</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>4.535553554365384</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>7.348053583983161</v>
+        <v>7.348053583983158</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.463379420556837</v>
+        <v>2.732400409499273</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4213335650732435</v>
+        <v>0.8720541796835432</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.366180977156675</v>
+        <v>2.483867124447867</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.33678649510301</v>
+        <v>0.792463056720862</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9349705353655542</v>
+        <v>0.5184651288406258</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.790714182672023</v>
+        <v>5.164848379592022</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.1956405831664</v>
+        <v>3.341903625422996</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.602076470376752</v>
+        <v>1.917780985042026</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.860586689084534</v>
+        <v>4.796366927886687</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.22767355240935</v>
+        <v>11.3686955754237</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.711619951582739</v>
+        <v>8.806698153722522</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.53500173129179</v>
+        <v>10.41902789213222</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.341328002245023</v>
+        <v>9.711599291899407</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.941056553478365</v>
+        <v>8.551752372012048</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>12.24026741992966</v>
+        <v>12.4455127819557</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.005453993017506</v>
+        <v>9.226571878701854</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.413969930650674</v>
+        <v>7.620950704610618</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>9.99606846744229</v>
+        <v>10.18668678401232</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3155257131608193</v>
+        <v>0.303402553382117</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.01281401128073548</v>
+        <v>0.090396536273952</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2708346769371813</v>
+        <v>0.2757669494701114</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.135861136953587</v>
+        <v>0.06811403446292615</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.117908375215118</v>
+        <v>0.05572775501797478</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5953221459108881</v>
+        <v>0.6546736719293441</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4509470083352549</v>
+        <v>0.4844616981113912</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2291834579827984</v>
+        <v>0.2573681966156785</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.6491091966691092</v>
+        <v>0.6520199700258035</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.142678952255539</v>
+        <v>2.854998975975315</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.321276409395592</v>
+        <v>2.288677088132065</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.077963301855249</v>
+        <v>2.609420376324533</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.194733803455178</v>
+        <v>2.33518874368264</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.214448013967217</v>
+        <v>2.062736585404374</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.027858394348626</v>
+        <v>3.072685812735376</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.029812504640167</v>
+        <v>1.999675079177726</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.692186016826765</v>
+        <v>1.660195789007261</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.35498488166906</v>
+        <v>2.404625771570243</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>2.408106518946046</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>4.853940994695654</v>
+        <v>4.853940994695657</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8741287462375017</v>
+        <v>0.9268233771846937</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9280024099426581</v>
+        <v>-1.029070134696085</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1301568262331361</v>
+        <v>0.623819971537846</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.388451748289613</v>
+        <v>-7.085669091508712</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-9.317851323980086</v>
+        <v>-9.4378233173832</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.573101488854374</v>
+        <v>-4.789373700072679</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8497612671977658</v>
+        <v>1.011598469865763</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.477552925347792</v>
+        <v>-1.387000009436314</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.122274725780443</v>
+        <v>1.386963644792922</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.706844081116749</v>
+        <v>9.403445354153494</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.99127474649339</v>
+        <v>7.263462135949668</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.826631372011009</v>
+        <v>9.23330538221748</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.05036003920426</v>
+        <v>9.748827767545885</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.01193495301801</v>
+        <v>10.23799549944874</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>11.61965782285496</v>
+        <v>11.13846436986386</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.404785491740212</v>
+        <v>8.463176867868956</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.055895009958427</v>
+        <v>6.406783083414664</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.616011078775637</v>
+        <v>9.037903491534168</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.1657759860121742</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.3341491948590229</v>
+        <v>0.3341491948590231</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.05897794653282369</v>
+        <v>0.05942886230464733</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.06996456856715036</v>
+        <v>-0.07730118883030196</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.01011212370355326</v>
+        <v>0.04492820580018148</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2629608838550171</v>
+        <v>-0.2485080733769541</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3500093534504971</v>
+        <v>-0.3397351901823024</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1594605111559823</v>
+        <v>-0.1639965212936054</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04983035723312903</v>
+        <v>0.06121760172245776</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.0915975970097091</v>
+        <v>-0.07939629296617227</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.0716253311343797</v>
+        <v>0.08204350095349494</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.9579892674751636</v>
+        <v>0.9233620906780672</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7110728808556577</v>
+        <v>0.7401894159030222</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9081108457109816</v>
+        <v>0.9326578661810727</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5322148162375765</v>
+        <v>0.5373773225373414</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5344024602144419</v>
+        <v>0.5355273249383623</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6024838267710705</v>
+        <v>0.6138717689102041</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6724625956016755</v>
+        <v>0.6436100094827008</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4654717219916543</v>
+        <v>0.5060579018746336</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6868888326953912</v>
+        <v>0.7229140404413864</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.121186291436538</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.790367865045349</v>
+        <v>3.790367865045352</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-2.649648928339907</v>
@@ -1306,7 +1306,7 @@
         <v>0.03884596081236424</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.290418796782972</v>
+        <v>1.290418796782977</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6315035965131861</v>
+        <v>-0.3214455953914743</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.545458679292522</v>
+        <v>-1.795043287057479</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5520349454059125</v>
+        <v>0.8952460403915289</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.610701896896972</v>
+        <v>-6.576560141806179</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.906580666908484</v>
+        <v>-6.065595769920167</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.309770714594055</v>
+        <v>-6.205024958377427</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.798154605397358</v>
+        <v>-1.847370513734339</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.178692521207366</v>
+        <v>-2.45882314597405</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.8198534379886093</v>
+        <v>-1.205776298759366</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.360971057978559</v>
+        <v>5.465145470105048</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.910750023808565</v>
+        <v>4.009321628787585</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.58505092738442</v>
+        <v>6.750969637039077</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.140898035021629</v>
+        <v>1.211744586180056</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.447246176140386</v>
+        <v>1.898673730922726</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5841520293912658</v>
+        <v>0.8638818022789421</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.97634214862885</v>
+        <v>2.938514335336064</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.280085225414772</v>
+        <v>2.398507237935049</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.654043023556035</v>
+        <v>3.469146454512908</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.07657824093654667</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2588862402479849</v>
+        <v>0.2588862402479851</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.142840564123183</v>
@@ -1411,7 +1411,7 @@
         <v>0.00241716599613606</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.08029551518689207</v>
+        <v>0.08029551518689242</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.0401718232198367</v>
+        <v>-0.02247705297197198</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.09995805308380365</v>
+        <v>-0.1209577758655022</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.0344389991199633</v>
+        <v>0.05550508815587295</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3281543170967786</v>
+        <v>-0.3167239166915174</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2914957494684526</v>
+        <v>-0.2927311236488184</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2998885780339448</v>
+        <v>-0.3027866541162687</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1057381369946809</v>
+        <v>-0.1095165909801544</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1260363090017733</v>
+        <v>-0.1416097251208797</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.04693466824591839</v>
+        <v>-0.07647234379490109</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4028609978193418</v>
+        <v>0.4105699596584482</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2866301577490986</v>
+        <v>0.2958381494554043</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4858093272329342</v>
+        <v>0.5033694522330239</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.07645565282948104</v>
+        <v>0.07566886451484381</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.08642147957592074</v>
+        <v>0.1139344813767916</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03798500288336215</v>
+        <v>0.05108274553245897</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2033014057804202</v>
+        <v>0.1971727808781923</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1495893161405562</v>
+        <v>0.1634487328300661</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2487499403244903</v>
+        <v>0.229402056750944</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>6.06946632996645</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4.687581265941102</v>
+        <v>4.687581265941098</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>13.55620927705541</v>
@@ -1520,7 +1520,7 @@
         <v>7.123948614804202</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>6.870582146427512</v>
+        <v>6.870582146427506</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.07600061026684</v>
+        <v>-1.940228673371209</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.227321882804248</v>
+        <v>1.392102404757187</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.4542169363104574</v>
+        <v>-0.2632985308218175</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8.893203748983593</v>
+        <v>8.694561013377912</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.893432001380728</v>
+        <v>3.760840659947636</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.31612871178679</v>
+        <v>4.553273709431554</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>6.018038704174364</v>
+        <v>5.395013111785314</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>3.730869016452974</v>
+        <v>3.811498446838068</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.230723016553481</v>
+        <v>3.622321463127477</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.205655398975995</v>
+        <v>8.13407777783876</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>11.12525189933336</v>
+        <v>10.84771170384234</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9.721449525837752</v>
+        <v>9.47513307736198</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18.73498388094702</v>
+        <v>18.52378061339476</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.86303260984508</v>
+        <v>13.34299062981497</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>12.47314702961633</v>
+        <v>12.60117769840606</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>12.93184922553373</v>
+        <v>12.24022933544576</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>10.34807960647675</v>
+        <v>10.53396583489385</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>9.936355116955573</v>
+        <v>9.851836430304447</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.4276236066408943</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.3302630409970663</v>
+        <v>0.3302630409970661</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.6780427083738603</v>
@@ -1625,7 +1625,7 @@
         <v>0.4006362701027847</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.386387459176691</v>
+        <v>0.3863874591766907</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1298408583962168</v>
+        <v>-0.1227267209023401</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.06547795302397111</v>
+        <v>0.0836234665821653</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.03802225386425298</v>
+        <v>-0.01665931527705893</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3897535834139038</v>
+        <v>0.3797271543288794</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1741972522588592</v>
+        <v>0.1592063831459853</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1842184993514503</v>
+        <v>0.1940191595490939</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.300243730617488</v>
+        <v>0.2648349658381756</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1931823037256633</v>
+        <v>0.1924597717932977</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1666316645624593</v>
+        <v>0.183325683921672</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6963141654065339</v>
+        <v>0.7168533727339989</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9928919827973565</v>
+        <v>0.9541770596412428</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8322932123600006</v>
+        <v>0.8134940593145461</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.078097431860257</v>
+        <v>1.045612883692157</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.798966411747087</v>
+        <v>0.7583901216913663</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7386777738759859</v>
+        <v>0.7185789092889641</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8107755013683868</v>
+        <v>0.7647300622370942</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6499601585315662</v>
+        <v>0.6617340223554158</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.6291333285296336</v>
+        <v>0.6274521111861013</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>0.5995881751599319</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.424588437683105</v>
+        <v>1.424588437683111</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>4.011123651465864</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.639786853765276</v>
+        <v>-1.495712348642676</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.92188129628137</v>
+        <v>-3.005261029492782</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.054326575778577</v>
+        <v>-3.548068262240241</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.176364927837525</v>
+        <v>0.6548355523508981</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.013237531026737</v>
+        <v>-3.664955569523224</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-2.302441463281277</v>
+        <v>-2.31131552046529</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.9819369818239723</v>
+        <v>0.8373385651267045</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.323442746552739</v>
+        <v>-3.154784079093286</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-3.241459703775639</v>
+        <v>-3.129322824662775</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.33427907939403</v>
+        <v>4.355429532928574</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.898277408265714</v>
+        <v>2.240438974961394</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.010139348379258</v>
+        <v>1.137036683683752</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8.711970990103406</v>
+        <v>8.549866564054302</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>4.516099171413789</v>
+        <v>4.363801516017327</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.188101572771925</v>
+        <v>5.111410429879052</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.479203028559235</v>
+        <v>7.271110055437052</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.137362371431808</v>
+        <v>3.209885671398967</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.193430337287975</v>
+        <v>3.330783533776319</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.02022526196874494</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04805410704122124</v>
+        <v>0.04805410704122143</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1642276639116318</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4974800647325668</v>
+        <v>-0.4958581342029477</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.7908510443449633</v>
+        <v>-0.7929814386682659</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.8504374013934745</v>
+        <v>-0.8628258296687941</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.03633898199429071</v>
+        <v>0.01846587648455066</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.09455718235181303</v>
+        <v>-0.1163252482072973</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.07203213598665598</v>
+        <v>-0.07684192270882709</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.04002970632174543</v>
+        <v>0.03286878679219638</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1336473560034056</v>
+        <v>-0.1230820819576803</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1231029941424761</v>
+        <v>-0.1209664942102268</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.781402505131197</v>
+        <v>2.952184592982948</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.317297599572716</v>
+        <v>1.632090254407504</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.779783605947501</v>
+        <v>0.9025967064454627</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.3104047416776925</v>
+        <v>0.3041091857386128</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1623809196037411</v>
+        <v>0.1590095213940269</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1915694156056966</v>
+        <v>0.1831954989926589</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3348107573172811</v>
+        <v>0.3156408464824036</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1383751444199059</v>
+        <v>0.1423855929023367</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1352069899152491</v>
+        <v>0.1453588027490794</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>2.737137388325593</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3.181132500518443</v>
+        <v>3.181132500518445</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>3.874003816905974</v>
@@ -1939,7 +1939,7 @@
         <v>1.151613218648065</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0.9242849240930662</v>
+        <v>0.9242849240930634</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>3.699017128248141</v>
@@ -1948,7 +1948,7 @@
         <v>1.952514994058946</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>2.078401243918413</v>
+        <v>2.078401243918407</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.689162005960503</v>
+        <v>1.86588786477441</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.127770832585626</v>
+        <v>1.056360792714904</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.665042108820967</v>
+        <v>1.71031814079126</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.639889319651527</v>
+        <v>1.766504130552886</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.9546262989400587</v>
+        <v>-0.8777187884857041</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.8015034610003462</v>
+        <v>-0.9244937720722693</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>2.248495727699371</v>
+        <v>2.411360333088029</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.6319938407175149</v>
+        <v>0.6688432626043771</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.8456563887218823</v>
+        <v>0.9284987380009992</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.157418238725536</v>
+        <v>5.067552032081895</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.275998269044503</v>
+        <v>4.204140554546058</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.716395453708969</v>
+        <v>4.74011474048428</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.744069318818944</v>
+        <v>5.781617280243109</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.061430425171245</v>
+        <v>3.160417643369842</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.649340395599979</v>
+        <v>2.725962680480124</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>5.017685942438028</v>
+        <v>5.168344209072746</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.320612969954514</v>
+        <v>3.347025546273642</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.193420611206244</v>
+        <v>3.359316345785308</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.2453225670021107</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.2851167041631143</v>
+        <v>0.2851167041631146</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.1810223274703628</v>
@@ -2044,7 +2044,7 @@
         <v>0.05381195141717852</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.04318947944112347</v>
+        <v>0.04318947944112334</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.2260716148057687</v>
@@ -2053,7 +2053,7 @@
         <v>0.1193312175465468</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.1270249661291738</v>
+        <v>0.1270249661291735</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1417115035747077</v>
+        <v>0.1533267468821597</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.09262864125650877</v>
+        <v>0.08742614448866903</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1377759910449156</v>
+        <v>0.1386430474697192</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.07341311209338618</v>
+        <v>0.08228562189065455</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.04263019548164942</v>
+        <v>-0.0397077633199926</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.03615617210384193</v>
+        <v>-0.04416798501550447</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1348367162060746</v>
+        <v>0.1399709622378969</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.03568207359317684</v>
+        <v>0.04182491863655021</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.0511946890301126</v>
+        <v>0.05417175556188886</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4989004465190928</v>
+        <v>0.4761086991876145</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.406394219237384</v>
+        <v>0.4020195098071563</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.4528834517694445</v>
+        <v>0.4544171209977033</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2821709564246656</v>
+        <v>0.2831666747614159</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.151969888141999</v>
+        <v>0.156358317431359</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1295052673639379</v>
+        <v>0.1319604418783307</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3217000334972877</v>
+        <v>0.3303121545778184</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2085417816710861</v>
+        <v>0.2135560223688851</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2059416526158563</v>
+        <v>0.2145642717329986</v>
       </c>
     </row>
     <row r="46">
